--- a/TEMPLATE_PROXY_OPENCLASH.xlsx
+++ b/TEMPLATE_PROXY_OPENCLASH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190FC0B-3C37-43D9-996E-C248FBAD8C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2346161-EA80-487F-BA7B-9854647EB3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>HOST</t>
-  </si>
-  <si>
-    <t>SERVER</t>
-  </si>
-  <si>
-    <t>PORT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>PASSWORD</t>
   </si>
@@ -54,25 +45,31 @@
     <t>PATH</t>
   </si>
   <si>
-    <t>TLS</t>
-  </si>
-  <si>
-    <t>LIST BUG (isi dibawah, bisa lebih dari 1 bug)</t>
-  </si>
-  <si>
-    <t>LIST HOST (isi disamping, bisa lebih dari 1 host)</t>
-  </si>
-  <si>
-    <t>cfdfa040-2bc7-40ec-a2ac-79829b8f5557</t>
-  </si>
-  <si>
     <t>vmess</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>577292a9-0771-4558-9d39-327f476a3c13</t>
+  </si>
+  <si>
+    <t>GRPC NAME (jika ada)</t>
+  </si>
+  <si>
+    <t>02 Januari</t>
+  </si>
+  <si>
+    <t>LIST BUG (bisa lebih dari 1 bug)</t>
+  </si>
+  <si>
+    <t>LIST AKUN (bisa lebih dari 1 akun)</t>
+  </si>
+  <si>
+    <t>EXPIRED</t>
+  </si>
+  <si>
+    <t>SERVER/HOST</t>
+  </si>
+  <si>
+    <t>hidessh.com</t>
   </si>
   <si>
     <t>bug1.com</t>
@@ -81,25 +78,13 @@
     <t>bug2.com</t>
   </si>
   <si>
-    <t>HOST 1</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>HOST 2</t>
-  </si>
-  <si>
-    <t>server-2.com</t>
-  </si>
-  <si>
-    <t>server-1.com</t>
-  </si>
-  <si>
-    <t>cfdfa040-2bc7-40ec-a2ac-79829b8f5772</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>bug3.com</t>
+  </si>
+  <si>
+    <t>02 feb</t>
+  </si>
+  <si>
+    <t>577292a9-0771-4558-9d39-327f476a54c22</t>
   </si>
 </sst>
 </file>
@@ -497,14 +482,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -516,75 +501,64 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
@@ -598,7 +572,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
